--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>759356.9652887634</v>
+        <v>773083.3234261812</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573493.4371019268</v>
+      </c>
+      <c r="C2" t="n">
         <v>573493.4371019269</v>
       </c>
-      <c r="C2" t="n">
-        <v>573493.4371019268</v>
-      </c>
       <c r="D2" t="n">
-        <v>573493.4371019271</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="E2" t="n">
         <v>160048.7674098091</v>
@@ -26326,7 +26328,7 @@
         <v>160048.7674098091</v>
       </c>
       <c r="G2" t="n">
-        <v>160048.7674098091</v>
+        <v>160048.767409809</v>
       </c>
       <c r="H2" t="n">
         <v>160048.7674098091</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103591.9573826788</v>
+        <v>103591.9573826786</v>
       </c>
       <c r="C6" t="n">
-        <v>103591.9573826786</v>
+        <v>103591.9573826787</v>
       </c>
       <c r="D6" t="n">
-        <v>103591.957382679</v>
+        <v>103591.9573826787</v>
       </c>
       <c r="E6" t="n">
-        <v>-30815.86869825904</v>
+        <v>-30815.86869825912</v>
       </c>
       <c r="F6" t="n">
-        <v>102284.131301741</v>
+        <v>102284.1313017409</v>
       </c>
       <c r="G6" t="n">
-        <v>102284.131301741</v>
+        <v>102284.1313017409</v>
       </c>
       <c r="H6" t="n">
-        <v>102284.131301741</v>
+        <v>102284.1313017409</v>
       </c>
       <c r="I6" t="n">
-        <v>102284.131301741</v>
+        <v>102284.1313017409</v>
       </c>
       <c r="J6" t="n">
         <v>102284.131301741</v>
       </c>
       <c r="K6" t="n">
-        <v>102284.131301741</v>
+        <v>102284.1313017409</v>
       </c>
       <c r="L6" t="n">
         <v>102284.131301741</v>
       </c>
       <c r="M6" t="n">
-        <v>102284.131301741</v>
+        <v>102284.1313017409</v>
       </c>
       <c r="N6" t="n">
         <v>102284.131301741</v>
       </c>
       <c r="O6" t="n">
-        <v>102284.131301741</v>
+        <v>102284.1313017409</v>
       </c>
       <c r="P6" t="n">
         <v>102284.131301741</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>773083.3234261812</v>
+        <v>689297.9216645568</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.437101927</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.4371019271</v>
       </c>
       <c r="D2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.437101927</v>
       </c>
       <c r="E2" t="n">
         <v>160048.7674098091</v>
@@ -26328,7 +26328,7 @@
         <v>160048.7674098091</v>
       </c>
       <c r="G2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="H2" t="n">
         <v>160048.7674098091</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103591.9573826786</v>
+        <v>103547.8216039977</v>
       </c>
       <c r="C6" t="n">
-        <v>103591.9573826787</v>
+        <v>103547.8216039978</v>
       </c>
       <c r="D6" t="n">
-        <v>103591.9573826787</v>
+        <v>103547.8216039977</v>
       </c>
       <c r="E6" t="n">
-        <v>-30815.86869825912</v>
+        <v>-45625.885537373</v>
       </c>
       <c r="F6" t="n">
-        <v>102284.1313017409</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="G6" t="n">
-        <v>102284.1313017409</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="H6" t="n">
-        <v>102284.1313017409</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="I6" t="n">
-        <v>102284.1313017409</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="J6" t="n">
-        <v>102284.131301741</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="K6" t="n">
-        <v>102284.1313017409</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="L6" t="n">
-        <v>102284.131301741</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="M6" t="n">
-        <v>102284.1313017409</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="N6" t="n">
-        <v>102284.131301741</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="O6" t="n">
-        <v>102284.1313017409</v>
+        <v>87474.11446262707</v>
       </c>
       <c r="P6" t="n">
-        <v>102284.131301741</v>
+        <v>87474.11446262707</v>
       </c>
     </row>
   </sheetData>
